--- a/export/export_files/Anker SOLIX C800X Solar Generator  100W Solar Panel/Anker SOLIX C800X Solar Generat.xlsx
+++ b/export/export_files/Anker SOLIX C800X Solar Generator  100W Solar Panel/Anker SOLIX C800X Solar Generat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,108 +448,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://outboundpower.com/products/anker-solix-c800x-portable-power-station</t>
+          <t>https://wildoaktrail.com/products/anker-solix-c800x-portable-power-station</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>449.0</t>
+          <t>499.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://wildoaktrail.com/products/anker-solix-c800x-portable-power-station</t>
+          <t>https://buildthepower.com/products/anker-solix-c800x-solar-generator-100w-solar-panel?srsltid=AfmBOoqZhXKaJgWdu9ldRlFLQ2pQsHiRHzmXgRIDJ1CEvb9-bntwkWbH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>449.0</t>
+          <t>722.99</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://allprogenerators.com/products/anker-solix-c800-plus-portable-power-station-768wh-1200w?srsltid=AfmBOor3-3yv-oljvwlGxM7M8_o0xwwZltHwFewQqpW0De5KJrC1-K5d</t>
+          <t>https://prepsos.com/products/anker-solix-c800x-solar-generator-100w-solar-panel?srsltid=AfmBOopojAFbkPsxN2B0TH8UDNIlhlLq1WagkLkzax5UP4wBurkvmplm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>469.0</t>
+          <t>869.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.offgridlivingsolutions.com/products/anker-solix-c800x-portable-power-station-solar-generator-768wh-1200w?srsltid=AfmBOooOe5nCgreCuaiLmnvf1FagPCSH113B7XLFVA53_2MQkgvg51-H</t>
+          <t>https://amgosolar.com/products/anker-solix-c800x-solar-generator-100w-solar-panel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>499.0</t>
+          <t>898.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://solssentials.com/products/anker-solix-c800x-solar-generator-kit?srsltid=AfmBOopbv65KWn-H6tI84GWncnoF9B2iM2OYC_cJt5uamRohuN_JgJ4u</t>
+          <t>https://www.earthtechproducts.com/anker-solix-c800x-plus-solar-kit.html?srsltid=AfmBOoqSw02dRiRtzirugj2CY3FhJgBxCu2LVUZ6tBEcaXiC-CIKTHDZ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>629.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://offgridstores.com/products/anker-solix-c800x-solar-generator-100w-solar-panel</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>629.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://buildthepower.com/products/anker-solix-c800x-solar-generator-100w-solar-panel?srsltid=AfmBOooClyDtin1W1doQTpPRFJstTok23-bh4b1krt6i12EFVbeH-rw6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>722.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://prepsos.com/products/anker-solix-c800x-solar-generator-100w-solar-panel?srsltid=AfmBOoqosPwou-CrxxCrqGEAGfa4p60Mw7sQXL-ddgU9eOvrRKEKCrxL</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>869.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://amgosolar.com/products/anker-solix-c800x-solar-generator-100w-solar-panel</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>898.0</t>
+          <t>948.0</t>
         </is>
       </c>
     </row>
